--- a/biology/Mycologie/Marasme_petite_roue/Marasme_petite_roue.xlsx
+++ b/biology/Mycologie/Marasme_petite_roue/Marasme_petite_roue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marasmius rotula
 Le Marasme petite roue (Marasmius rotula) est un champignon agaricomycète, saprophyte, du genre Marasmius et de la famille des Marasmiaceae. Largement répandu dans l'hémisphère Nord, l'espèce type du genre Marasmius, Marasmius rotula a été décrite scientifiquement, pour la première fois, en 1772 par le mycologue Giovanni Antonio Scopoli et a reçu son nom actuel, en 1838, par Elias Magnus Fries.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marasmius rotula a une forme de parachute ou de roue avec ses rayons, d’où son nom de petite roue.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les branches de feuillus morts.
 </t>
@@ -574,7 +590,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Non comestible.
 </t>
